--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -1,45 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trevormoy/Documents/VS Code/Projects - Summer 2023/Stocks2022/Stocks/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F79B74-7492-BF49-B53E-F7436C09BE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -57,23 +47,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,15 +423,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Live Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AACI</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AACIU</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AACIW</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AADI</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AADR</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>51.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AAL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>18.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AAME</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AAOI</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AAON</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>103.79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AAPB</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AAPD</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20.22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>193.11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AAPU</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AAXJ</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>68.06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ABCB</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>39.01</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ABCL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ABCM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>23.69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ABEO</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ABIO</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2.02</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B20"/>
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.86</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51.36</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="7">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.55</v>
+        <v>18.59</v>
       </c>
     </row>
     <row r="8">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="9">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.68</v>
+        <v>7.79</v>
       </c>
     </row>
     <row r="10">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.79</v>
+        <v>104.39</v>
       </c>
     </row>
     <row r="11">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.22</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="13">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>193.11</v>
+        <v>193.61</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.83</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="15">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68.06</v>
+        <v>68.25</v>
       </c>
     </row>
     <row r="16">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>39.01</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="17">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.61</v>
+        <v>7.53</v>
       </c>
     </row>
     <row r="18">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.69</v>
+        <v>23.67</v>
       </c>
     </row>
     <row r="19">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="20">
@@ -635,7 +635,797 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ABL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ABLLW</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ABNB</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>145.66</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ABOS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ABSI</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ABST</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11.48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ABUS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ABVC</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ACAB</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ACABU</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ACABW</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ACAC</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ACACU</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ACACW</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ACAD</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>33.05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ACAH</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ACAHU</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ACAHW</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ACAX</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ACAXR</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ACAXU</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>ACAXW</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ACB</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ACBA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>11.28</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ACBAU</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ACBAW</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ACCD</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ACDC</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ACDCW</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ACER</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ACET</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ACGL</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>80.77</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ACGLN</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ACGLO</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ACGN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ACHC</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>74.26000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ACHL</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ACHV</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ACIU</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ACIW</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ACLS</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>190.56</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ACLX</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ACMR</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ACNB</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>33.52</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACNT</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ACON</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ACONW</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ACOR</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>ACRS</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ACRV</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ACRX</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ACST</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>ACT</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>26.94</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ACTG</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>ACVA</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>ACWI</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>98.43000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>ACWX</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>50.51</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>ACXP</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ADAG</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ADAP</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>ADBE</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>534.8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ADD</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>ADEA</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ADER</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ADERU</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ADERW</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ADES</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>195.27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ADIL</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ADILW</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ADMA</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ADMP</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ADN</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ADNWW</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>ADOC</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ADOCR</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>ADOCW</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>235.25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>ADPT</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>7.53</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:B99"/>
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -451,11 +451,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aapl</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.98</v>
+        <v>193.96</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -451,11 +451,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.96</v>
+        <v>293.34</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="A1:B2"/>
@@ -451,11 +451,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.34</v>
+        <v>193.73</v>
+      </c>
+      <c r="C2" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="G2" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>132.83</v>
+      </c>
+      <c r="I2" t="n">
+        <v>132.83</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks.xlsx
+++ b/Stocks.xlsx
@@ -428,10 +428,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -447,36 +447,16 @@
           <t>Live Price</t>
         </is>
       </c>
+      <c r="C1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.73</v>
-      </c>
-      <c r="C2" t="n">
-        <v>132.83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>132.83</v>
-      </c>
-      <c r="E2" t="n">
-        <v>132.83</v>
-      </c>
-      <c r="F2" t="n">
-        <v>132.83</v>
-      </c>
-      <c r="G2" t="n">
-        <v>132.83</v>
-      </c>
-      <c r="H2" t="n">
-        <v>132.83</v>
-      </c>
-      <c r="I2" t="n">
-        <v>132.83</v>
+        <v>294.18</v>
       </c>
     </row>
   </sheetData>
